--- a/excel/finished/wg8#高炉/喷煤风口报表.xlsx
+++ b/excel/finished/wg8#高炉/喷煤风口报表.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3FC448-C8A5-46EA-909E-7D09DB623CCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="3795" yWindow="2715" windowWidth="22665" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="喷煤、风口大事记报表" sheetId="1" r:id="rId1"/>
-    <sheet name="_pmfk_day_hour" sheetId="2" r:id="rId2"/>
+    <sheet name="_pmfk_day_all" sheetId="2" r:id="rId2"/>
     <sheet name="_metadata" sheetId="3" r:id="rId3"/>
     <sheet name="_dictionary" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -237,8 +249,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -682,15 +694,72 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -707,12 +776,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -728,57 +791,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1053,70 +1065,70 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Z22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B1" s="35" t="s">
+    <row r="1" spans="2:26" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-    </row>
-    <row r="2" spans="2:26" ht="18" customHeight="1" thickTop="1">
-      <c r="B2" s="36" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+    </row>
+    <row r="2" spans="2:26" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="38"/>
-    </row>
-    <row r="3" spans="2:26">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="27"/>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -1179,80 +1191,80 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="2:26" ht="14.25">
+    <row r="4" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="15" t="str">
-        <f>IF(_pmfk_day_hour!A2="","",_pmfk_day_hour!A2)</f>
+        <f>IF(_pmfk_day_all!A2="","",_pmfk_day_all!A2)</f>
         <v/>
       </c>
       <c r="D4" s="10" t="str">
-        <f>IF(_pmfk_day_hour!A3="","",_pmfk_day_hour!A3)</f>
+        <f>IF(_pmfk_day_all!A3="","",_pmfk_day_all!A3)</f>
         <v/>
       </c>
       <c r="E4" s="10" t="str">
-        <f>IF(_pmfk_day_hour!A4="","",_pmfk_day_hour!A4)</f>
+        <f>IF(_pmfk_day_all!A4="","",_pmfk_day_all!A4)</f>
         <v/>
       </c>
       <c r="F4" s="10" t="str">
-        <f>IF(_pmfk_day_hour!A5="","",_pmfk_day_hour!A5)</f>
+        <f>IF(_pmfk_day_all!A5="","",_pmfk_day_all!A5)</f>
         <v/>
       </c>
       <c r="G4" s="10" t="str">
-        <f>IF(_pmfk_day_hour!A6="","",_pmfk_day_hour!A6)</f>
+        <f>IF(_pmfk_day_all!A6="","",_pmfk_day_all!A6)</f>
         <v/>
       </c>
       <c r="H4" s="10" t="str">
-        <f>IF(_pmfk_day_hour!A7="","",_pmfk_day_hour!A7)</f>
+        <f>IF(_pmfk_day_all!A7="","",_pmfk_day_all!A7)</f>
         <v/>
       </c>
       <c r="I4" s="10" t="str">
-        <f>IF(_pmfk_day_hour!A8="","",_pmfk_day_hour!A8)</f>
+        <f>IF(_pmfk_day_all!A8="","",_pmfk_day_all!A8)</f>
         <v/>
       </c>
       <c r="J4" s="10" t="str">
-        <f>IF(_pmfk_day_hour!A9="","",_pmfk_day_hour!A9)</f>
+        <f>IF(_pmfk_day_all!A9="","",_pmfk_day_all!A9)</f>
         <v/>
       </c>
       <c r="K4" s="10" t="str">
-        <f>IF(_pmfk_day_hour!A10="","",_pmfk_day_hour!A10)</f>
+        <f>IF(_pmfk_day_all!A10="","",_pmfk_day_all!A10)</f>
         <v/>
       </c>
       <c r="L4" s="10" t="str">
-        <f>IF(_pmfk_day_hour!A11="","",_pmfk_day_hour!A11)</f>
+        <f>IF(_pmfk_day_all!A11="","",_pmfk_day_all!A11)</f>
         <v/>
       </c>
       <c r="M4" s="10" t="str">
-        <f>IF(_pmfk_day_hour!A12="","",_pmfk_day_hour!A12)</f>
+        <f>IF(_pmfk_day_all!A12="","",_pmfk_day_all!A12)</f>
         <v/>
       </c>
       <c r="N4" s="10" t="str">
-        <f>IF(_pmfk_day_hour!A13="","",_pmfk_day_hour!A13)</f>
+        <f>IF(_pmfk_day_all!A13="","",_pmfk_day_all!A13)</f>
         <v/>
       </c>
       <c r="O4" s="10" t="str">
-        <f>IF(_pmfk_day_hour!A14="","",_pmfk_day_hour!A14)</f>
+        <f>IF(_pmfk_day_all!A14="","",_pmfk_day_all!A14)</f>
         <v/>
       </c>
       <c r="P4" s="10" t="str">
-        <f>IF(_pmfk_day_hour!A15="","",_pmfk_day_hour!A15)</f>
+        <f>IF(_pmfk_day_all!A15="","",_pmfk_day_all!A15)</f>
         <v/>
       </c>
       <c r="Q4" s="10" t="str">
-        <f>IF(_pmfk_day_hour!A16="","",_pmfk_day_hour!A16)</f>
+        <f>IF(_pmfk_day_all!A16="","",_pmfk_day_all!A16)</f>
         <v/>
       </c>
       <c r="R4" s="10" t="str">
-        <f>IF(_pmfk_day_hour!A17="","",_pmfk_day_hour!A17)</f>
+        <f>IF(_pmfk_day_all!A17="","",_pmfk_day_all!A17)</f>
         <v/>
       </c>
       <c r="S4" s="10" t="str">
-        <f>IF(_pmfk_day_hour!A18="","",_pmfk_day_hour!A18)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="2:26">
+        <f>IF(_pmfk_day_all!A18="","",_pmfk_day_all!A18)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
@@ -1288,36 +1300,36 @@
       <c r="R5" s="8"/>
       <c r="S5" s="9"/>
     </row>
-    <row r="6" spans="2:26">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="10" t="str">
-        <f>IF(_pmfk_day_hour!A19="","",_pmfk_day_hour!A19)</f>
+        <f>IF(_pmfk_day_all!A19="","",_pmfk_day_all!A19)</f>
         <v/>
       </c>
       <c r="D6" s="10" t="str">
-        <f>IF(_pmfk_day_hour!A20="","",_pmfk_day_hour!A20)</f>
+        <f>IF(_pmfk_day_all!A20="","",_pmfk_day_all!A20)</f>
         <v/>
       </c>
       <c r="E6" s="10" t="str">
-        <f>IF(_pmfk_day_hour!A21="","",_pmfk_day_hour!A21)</f>
+        <f>IF(_pmfk_day_all!A21="","",_pmfk_day_all!A21)</f>
         <v/>
       </c>
       <c r="F6" s="10" t="str">
-        <f>IF(_pmfk_day_hour!A22="","",_pmfk_day_hour!A22)</f>
+        <f>IF(_pmfk_day_all!A22="","",_pmfk_day_all!A22)</f>
         <v/>
       </c>
       <c r="G6" s="10" t="str">
-        <f>IF(_pmfk_day_hour!A23="","",_pmfk_day_hour!A23)</f>
+        <f>IF(_pmfk_day_all!A23="","",_pmfk_day_all!A23)</f>
         <v/>
       </c>
       <c r="H6" s="10" t="str">
-        <f>IF(_pmfk_day_hour!A24="","",_pmfk_day_hour!A24)</f>
+        <f>IF(_pmfk_day_all!A24="","",_pmfk_day_all!A24)</f>
         <v/>
       </c>
       <c r="I6" s="10" t="str">
-        <f>IF(_pmfk_day_hour!A25="","",_pmfk_day_hour!A25)</f>
+        <f>IF(_pmfk_day_all!A25="","",_pmfk_day_all!A25)</f>
         <v/>
       </c>
       <c r="J6" s="10"/>
@@ -1331,29 +1343,29 @@
       <c r="R6" s="10"/>
       <c r="S6" s="11"/>
     </row>
-    <row r="7" spans="2:26" ht="23.1" customHeight="1">
-      <c r="B7" s="32" t="s">
+    <row r="7" spans="2:26" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="34"/>
-    </row>
-    <row r="8" spans="2:26">
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="23"/>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
         <v>1</v>
       </c>
@@ -1409,7 +1421,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:26" ht="20.25">
+    <row r="9" spans="2:26" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
         <v>3</v>
       </c>
@@ -1468,7 +1480,7 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="2:26" ht="77.45" customHeight="1">
+    <row r="10" spans="2:26" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -1488,7 +1500,7 @@
       <c r="R10" s="10"/>
       <c r="S10" s="11"/>
     </row>
-    <row r="11" spans="2:26">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
         <v>19</v>
       </c>
@@ -1544,7 +1556,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="2:26" ht="20.25">
+    <row r="12" spans="2:26" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B12" s="12" t="s">
         <v>4</v>
       </c>
@@ -1600,7 +1612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:26" ht="74.45" customHeight="1">
+    <row r="13" spans="2:26" ht="74.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1620,203 +1632,216 @@
       <c r="R13" s="4"/>
       <c r="S13" s="5"/>
     </row>
-    <row r="14" spans="2:26">
-      <c r="B14" s="42" t="s">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B14" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="39" t="s">
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="41"/>
-    </row>
-    <row r="15" spans="2:26">
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="39" t="s">
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="30"/>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="41"/>
-    </row>
-    <row r="16" spans="2:26" ht="19.5" customHeight="1">
-      <c r="B16" s="32" t="s">
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="30"/>
+    </row>
+    <row r="16" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="34"/>
-    </row>
-    <row r="17" spans="2:19" ht="83.1" customHeight="1">
-      <c r="B17" s="48"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="19"/>
-    </row>
-    <row r="18" spans="2:19" ht="19.5" customHeight="1">
-      <c r="B18" s="32" t="s">
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="23"/>
+    </row>
+    <row r="17" spans="2:19" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="38"/>
+    </row>
+    <row r="18" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="34"/>
-    </row>
-    <row r="19" spans="2:19" ht="81.599999999999994" customHeight="1">
-      <c r="B19" s="48"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="19"/>
-    </row>
-    <row r="20" spans="2:19">
-      <c r="B20" s="20" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="23"/>
+    </row>
+    <row r="19" spans="2:19" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="38"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B20" s="39" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="24" t="s">
+      <c r="D20" s="37"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="28" t="s">
+      <c r="G20" s="43"/>
+      <c r="H20" s="45" t="s">
         <v>15</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J20" s="16"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="24" t="s">
+      <c r="J20" s="37"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="M20" s="26"/>
-      <c r="N20" s="28" t="s">
+      <c r="M20" s="43"/>
+      <c r="N20" s="45" t="s">
         <v>19</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="24" t="s">
+      <c r="P20" s="37"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="S20" s="30"/>
-    </row>
-    <row r="21" spans="2:19" ht="14.25" thickBot="1">
-      <c r="B21" s="21"/>
+      <c r="S20" s="47"/>
+    </row>
+    <row r="21" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="40"/>
       <c r="C21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="29"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="46"/>
       <c r="I21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="29"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="46"/>
       <c r="O21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="31"/>
-    </row>
-    <row r="22" spans="2:19" ht="14.25" thickTop="1"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="48"/>
+    </row>
+    <row r="22" spans="2:19" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
     <mergeCell ref="R20:R21"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B18:S18"/>
@@ -1833,19 +1858,6 @@
     <mergeCell ref="H19:M19"/>
     <mergeCell ref="N19:S19"/>
     <mergeCell ref="B20:B21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="P20:Q20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1854,14 +1866,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1873,12 +1887,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1886,16 +1900,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>22</v>
       </c>

--- a/excel/finished/wg8#高炉/喷煤风口报表.xlsx
+++ b/excel/finished/wg8#高炉/喷煤风口报表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3FC448-C8A5-46EA-909E-7D09DB623CCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF3DB7C-18CE-4AEA-8E39-B976A84F674A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="2715" windowWidth="22665" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="喷煤、风口大事记报表" sheetId="1" r:id="rId1"/>
@@ -694,10 +694,40 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -706,9 +736,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -757,9 +784,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -768,30 +792,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1075,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Z22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1085,48 +1085,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
     </row>
     <row r="2" spans="2:26" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="27"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="36"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
@@ -1259,7 +1259,7 @@
         <f>IF(_pmfk_day_all!A17="","",_pmfk_day_all!A17)</f>
         <v/>
       </c>
-      <c r="S4" s="10" t="str">
+      <c r="S4" s="11" t="str">
         <f>IF(_pmfk_day_all!A18="","",_pmfk_day_all!A18)</f>
         <v/>
       </c>
@@ -1344,26 +1344,26 @@
       <c r="S6" s="11"/>
     </row>
     <row r="7" spans="2:26" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="23"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="32"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -1633,216 +1633,203 @@
       <c r="S13" s="5"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="28" t="s">
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="30"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="39"/>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="28" t="s">
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="30"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="39"/>
     </row>
     <row r="16" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="23"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="32"/>
     </row>
     <row r="17" spans="2:19" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="38"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="46"/>
     </row>
     <row r="18" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="23"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="32"/>
     </row>
     <row r="19" spans="2:19" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="38"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="46"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="47" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="16" t="s">
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="43"/>
-      <c r="H20" s="45" t="s">
+      <c r="G20" s="24"/>
+      <c r="H20" s="26" t="s">
         <v>15</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J20" s="37"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="16" t="s">
+      <c r="J20" s="16"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="M20" s="43"/>
-      <c r="N20" s="45" t="s">
+      <c r="M20" s="24"/>
+      <c r="N20" s="26" t="s">
         <v>19</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="16" t="s">
+      <c r="P20" s="16"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="S20" s="47"/>
+      <c r="S20" s="18"/>
     </row>
     <row r="21" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="40"/>
+      <c r="B21" s="48"/>
       <c r="C21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="46"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="27"/>
       <c r="I21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="41"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="46"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="27"/>
       <c r="O21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="48"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="19"/>
     </row>
     <row r="22" spans="2:19" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B18:S18"/>
     <mergeCell ref="B1:S1"/>
@@ -1857,7 +1844,20 @@
     <mergeCell ref="N17:S17"/>
     <mergeCell ref="H19:M19"/>
     <mergeCell ref="N19:S19"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:R21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1869,7 +1869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>

--- a/excel/finished/wg8#高炉/喷煤风口报表.xlsx
+++ b/excel/finished/wg8#高炉/喷煤风口报表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF3DB7C-18CE-4AEA-8E39-B976A84F674A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C12BB8C-BC17-4F6A-858F-F1AD74A0DF14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2040" windowWidth="26955" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="喷煤、风口大事记报表" sheetId="1" r:id="rId1"/>
@@ -694,104 +694,104 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1076,7 +1076,7 @@
   <dimension ref="B1:Z22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1085,48 +1085,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
     </row>
     <row r="2" spans="2:26" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="36"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="27"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
@@ -1344,26 +1344,26 @@
       <c r="S6" s="11"/>
     </row>
     <row r="7" spans="2:26" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="32"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="23"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -1633,202 +1633,215 @@
       <c r="S13" s="5"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="37" t="s">
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="39"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="30"/>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B15" s="43"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="37" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="39"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="30"/>
     </row>
     <row r="16" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="32"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="23"/>
     </row>
     <row r="17" spans="2:19" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="46"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="38"/>
     </row>
     <row r="18" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="32"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="23"/>
     </row>
     <row r="19" spans="2:19" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="46"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="38"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="22" t="s">
+      <c r="D20" s="37"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="26" t="s">
+      <c r="G20" s="43"/>
+      <c r="H20" s="45" t="s">
         <v>15</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J20" s="16"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="22" t="s">
+      <c r="J20" s="37"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M20" s="24"/>
-      <c r="N20" s="26" t="s">
+      <c r="M20" s="43"/>
+      <c r="N20" s="45" t="s">
         <v>19</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="22" t="s">
+      <c r="P20" s="37"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="S20" s="18"/>
+      <c r="S20" s="47"/>
     </row>
     <row r="21" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="48"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="27"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="46"/>
       <c r="I21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="20"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="27"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="46"/>
       <c r="O21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="19"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="48"/>
     </row>
     <row r="22" spans="2:19" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="J20:K20"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B18:S18"/>
@@ -1845,19 +1858,6 @@
     <mergeCell ref="H19:M19"/>
     <mergeCell ref="N19:S19"/>
     <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:R21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1869,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/excel/finished/wg8#高炉/喷煤风口报表.xlsx
+++ b/excel/finished/wg8#高炉/喷煤风口报表.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\wg-steel\excel\finished\wg8#高炉\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C12BB8C-BC17-4F6A-858F-F1AD74A0DF14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FFADDC-08A1-40A4-B08F-52E32DD8F9E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2040" windowWidth="26955" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3735" yWindow="1620" windowWidth="24480" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="喷煤、风口大事记报表" sheetId="1" r:id="rId1"/>
-    <sheet name="_pmfk_day_all" sheetId="2" r:id="rId2"/>
+    <sheet name="_tag_day_hour1" sheetId="2" r:id="rId2"/>
     <sheet name="_metadata" sheetId="3" r:id="rId3"/>
     <sheet name="_dictionary" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -250,7 +250,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,12 +297,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3095FB"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -661,7 +655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -693,7 +687,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1076,7 +1069,7 @@
   <dimension ref="B1:Z22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1085,48 +1078,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
     </row>
     <row r="2" spans="2:26" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="27"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="26"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
@@ -1195,72 +1188,72 @@
       <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="15" t="str">
-        <f>IF(_pmfk_day_all!A2="","",_pmfk_day_all!A2)</f>
+      <c r="C4" s="10" t="str">
+        <f>IF(_tag_day_hour1!A2="","",_tag_day_hour1!A2)</f>
         <v/>
       </c>
       <c r="D4" s="10" t="str">
-        <f>IF(_pmfk_day_all!A3="","",_pmfk_day_all!A3)</f>
+        <f>IF(_tag_day_hour1!A3="","",_tag_day_hour1!A3)</f>
         <v/>
       </c>
       <c r="E4" s="10" t="str">
-        <f>IF(_pmfk_day_all!A4="","",_pmfk_day_all!A4)</f>
+        <f>IF(_tag_day_hour1!A4="","",_tag_day_hour1!A4)</f>
         <v/>
       </c>
       <c r="F4" s="10" t="str">
-        <f>IF(_pmfk_day_all!A5="","",_pmfk_day_all!A5)</f>
+        <f>IF(_tag_day_hour1!A5="","",_tag_day_hour1!A5)</f>
         <v/>
       </c>
       <c r="G4" s="10" t="str">
-        <f>IF(_pmfk_day_all!A6="","",_pmfk_day_all!A6)</f>
+        <f>IF(_tag_day_hour1!A6="","",_tag_day_hour1!A6)</f>
         <v/>
       </c>
       <c r="H4" s="10" t="str">
-        <f>IF(_pmfk_day_all!A7="","",_pmfk_day_all!A7)</f>
+        <f>IF(_tag_day_hour1!A7="","",_tag_day_hour1!A7)</f>
         <v/>
       </c>
       <c r="I4" s="10" t="str">
-        <f>IF(_pmfk_day_all!A8="","",_pmfk_day_all!A8)</f>
+        <f>IF(_tag_day_hour1!A8="","",_tag_day_hour1!A8)</f>
         <v/>
       </c>
       <c r="J4" s="10" t="str">
-        <f>IF(_pmfk_day_all!A9="","",_pmfk_day_all!A9)</f>
+        <f>IF(_tag_day_hour1!A9="","",_tag_day_hour1!A9)</f>
         <v/>
       </c>
       <c r="K4" s="10" t="str">
-        <f>IF(_pmfk_day_all!A10="","",_pmfk_day_all!A10)</f>
+        <f>IF(_tag_day_hour1!A10="","",_tag_day_hour1!A10)</f>
         <v/>
       </c>
       <c r="L4" s="10" t="str">
-        <f>IF(_pmfk_day_all!A11="","",_pmfk_day_all!A11)</f>
+        <f>IF(_tag_day_hour1!A11="","",_tag_day_hour1!A11)</f>
         <v/>
       </c>
       <c r="M4" s="10" t="str">
-        <f>IF(_pmfk_day_all!A12="","",_pmfk_day_all!A12)</f>
+        <f>IF(_tag_day_hour1!A12="","",_tag_day_hour1!A12)</f>
         <v/>
       </c>
       <c r="N4" s="10" t="str">
-        <f>IF(_pmfk_day_all!A13="","",_pmfk_day_all!A13)</f>
+        <f>IF(_tag_day_hour1!A13="","",_tag_day_hour1!A13)</f>
         <v/>
       </c>
       <c r="O4" s="10" t="str">
-        <f>IF(_pmfk_day_all!A14="","",_pmfk_day_all!A14)</f>
+        <f>IF(_tag_day_hour1!A14="","",_tag_day_hour1!A14)</f>
         <v/>
       </c>
       <c r="P4" s="10" t="str">
-        <f>IF(_pmfk_day_all!A15="","",_pmfk_day_all!A15)</f>
+        <f>IF(_tag_day_hour1!A15="","",_tag_day_hour1!A15)</f>
         <v/>
       </c>
       <c r="Q4" s="10" t="str">
-        <f>IF(_pmfk_day_all!A16="","",_pmfk_day_all!A16)</f>
+        <f>IF(_tag_day_hour1!A16="","",_tag_day_hour1!A16)</f>
         <v/>
       </c>
       <c r="R4" s="10" t="str">
-        <f>IF(_pmfk_day_all!A17="","",_pmfk_day_all!A17)</f>
+        <f>IF(_tag_day_hour1!A17="","",_tag_day_hour1!A17)</f>
         <v/>
       </c>
       <c r="S4" s="11" t="str">
-        <f>IF(_pmfk_day_all!A18="","",_pmfk_day_all!A18)</f>
+        <f>IF(_tag_day_hour1!A18="","",_tag_day_hour1!A18)</f>
         <v/>
       </c>
     </row>
@@ -1305,31 +1298,31 @@
         <v>2</v>
       </c>
       <c r="C6" s="10" t="str">
-        <f>IF(_pmfk_day_all!A19="","",_pmfk_day_all!A19)</f>
+        <f>IF(_tag_day_hour1!A19="","",_tag_day_hour1!A19)</f>
         <v/>
       </c>
       <c r="D6" s="10" t="str">
-        <f>IF(_pmfk_day_all!A20="","",_pmfk_day_all!A20)</f>
+        <f>IF(_tag_day_hour1!A20="","",_tag_day_hour1!A20)</f>
         <v/>
       </c>
       <c r="E6" s="10" t="str">
-        <f>IF(_pmfk_day_all!A21="","",_pmfk_day_all!A21)</f>
+        <f>IF(_tag_day_hour1!A21="","",_tag_day_hour1!A21)</f>
         <v/>
       </c>
       <c r="F6" s="10" t="str">
-        <f>IF(_pmfk_day_all!A22="","",_pmfk_day_all!A22)</f>
+        <f>IF(_tag_day_hour1!A22="","",_tag_day_hour1!A22)</f>
         <v/>
       </c>
       <c r="G6" s="10" t="str">
-        <f>IF(_pmfk_day_all!A23="","",_pmfk_day_all!A23)</f>
+        <f>IF(_tag_day_hour1!A23="","",_tag_day_hour1!A23)</f>
         <v/>
       </c>
       <c r="H6" s="10" t="str">
-        <f>IF(_pmfk_day_all!A24="","",_pmfk_day_all!A24)</f>
+        <f>IF(_tag_day_hour1!A24="","",_tag_day_hour1!A24)</f>
         <v/>
       </c>
       <c r="I6" s="10" t="str">
-        <f>IF(_pmfk_day_all!A25="","",_pmfk_day_all!A25)</f>
+        <f>IF(_tag_day_hour1!A25="","",_tag_day_hour1!A25)</f>
         <v/>
       </c>
       <c r="J6" s="10"/>
@@ -1343,29 +1336,29 @@
       <c r="R6" s="10"/>
       <c r="S6" s="11"/>
     </row>
-    <row r="7" spans="2:26" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="21" t="s">
+    <row r="7" spans="2:26" ht="23.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="23"/>
-    </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="22"/>
+    </row>
+    <row r="8" spans="2:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
         <v>1</v>
       </c>
@@ -1421,7 +1414,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:26" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:26" ht="20.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
         <v>3</v>
       </c>
@@ -1480,7 +1473,7 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="2:26" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:26" ht="77.45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -1500,7 +1493,7 @@
       <c r="R10" s="10"/>
       <c r="S10" s="11"/>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
         <v>19</v>
       </c>
@@ -1556,7 +1549,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="2:26" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:26" ht="20.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" s="12" t="s">
         <v>4</v>
       </c>
@@ -1612,7 +1605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:26" ht="74.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:26" ht="74.45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1633,198 +1626,198 @@
       <c r="S13" s="5"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="28" t="s">
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="30"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="29"/>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="28" t="s">
+      <c r="B15" s="33"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="30"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="29"/>
     </row>
     <row r="16" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="23"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="22"/>
     </row>
     <row r="17" spans="2:19" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="38"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="37"/>
     </row>
     <row r="18" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="23"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="22"/>
     </row>
     <row r="19" spans="2:19" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="38"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="37"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="41" t="s">
+      <c r="D20" s="36"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="43"/>
-      <c r="H20" s="45" t="s">
+      <c r="G20" s="42"/>
+      <c r="H20" s="44" t="s">
         <v>15</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J20" s="37"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="41" t="s">
+      <c r="J20" s="36"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="M20" s="43"/>
-      <c r="N20" s="45" t="s">
+      <c r="M20" s="42"/>
+      <c r="N20" s="44" t="s">
         <v>19</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="41" t="s">
+      <c r="P20" s="36"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="S20" s="47"/>
+      <c r="S20" s="46"/>
     </row>
     <row r="21" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="17"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="39"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="46"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="45"/>
       <c r="I21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="39"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="46"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="45"/>
       <c r="O21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="48"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="47"/>
     </row>
     <row r="22" spans="2:19" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -1870,10 +1863,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
